--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1702,28 +1702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.4458194643688</v>
+        <v>345.1037562826921</v>
       </c>
       <c r="AB2" t="n">
-        <v>415.1879572758922</v>
+        <v>472.1861842491878</v>
       </c>
       <c r="AC2" t="n">
-        <v>375.5630013534382</v>
+        <v>427.1213975419165</v>
       </c>
       <c r="AD2" t="n">
-        <v>303445.8194643688</v>
+        <v>345103.7562826921</v>
       </c>
       <c r="AE2" t="n">
-        <v>415187.9572758922</v>
+        <v>472186.1842491878</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.572794421976723e-06</v>
+        <v>4.349436622637036e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.875434027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>375563.0013534381</v>
+        <v>427121.3975419165</v>
       </c>
     </row>
     <row r="3">
@@ -1808,28 +1808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.2754928258164</v>
+        <v>173.1045507435288</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.3500472048051</v>
+        <v>236.8492831609866</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.4654111207658</v>
+        <v>214.2447199962273</v>
       </c>
       <c r="AD3" t="n">
-        <v>152275.4928258164</v>
+        <v>173104.5507435288</v>
       </c>
       <c r="AE3" t="n">
-        <v>208350.0472048051</v>
+        <v>236849.2831609866</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.008857384831419e-06</v>
+        <v>6.777172313331631e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.054253472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>188465.4111207658</v>
+        <v>214244.7199962273</v>
       </c>
     </row>
     <row r="4">
@@ -1914,28 +1914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.9684102645288</v>
+        <v>171.7974681822413</v>
       </c>
       <c r="AB4" t="n">
-        <v>206.5616391800395</v>
+        <v>235.0608751362211</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.8476862478369</v>
+        <v>212.6269951232984</v>
       </c>
       <c r="AD4" t="n">
-        <v>150968.4102645289</v>
+        <v>171797.4681822413</v>
       </c>
       <c r="AE4" t="n">
-        <v>206561.6391800395</v>
+        <v>235060.8751362211</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.041535496592627e-06</v>
+        <v>6.832416282627718e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.013020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>186847.6862478369</v>
+        <v>212626.9951232984</v>
       </c>
     </row>
   </sheetData>
@@ -2211,28 +2211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.1178731384325</v>
+        <v>241.4749175245842</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.8607878910931</v>
+        <v>330.3966352784831</v>
       </c>
       <c r="AC2" t="n">
-        <v>261.2923197135143</v>
+        <v>298.8640441221929</v>
       </c>
       <c r="AD2" t="n">
-        <v>211117.8731384325</v>
+        <v>241474.9175245842</v>
       </c>
       <c r="AE2" t="n">
-        <v>288860.7878910931</v>
+        <v>330396.6352784831</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.210996765928074e-06</v>
+        <v>5.560775324291538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>261292.3197135143</v>
+        <v>298864.044122193</v>
       </c>
     </row>
     <row r="3">
@@ -2317,28 +2317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.7472661699854</v>
+        <v>163.9284913662564</v>
       </c>
       <c r="AB3" t="n">
-        <v>196.6813512554965</v>
+        <v>224.2941939018398</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.9103591357378</v>
+        <v>202.887870834791</v>
       </c>
       <c r="AD3" t="n">
-        <v>143747.2661699853</v>
+        <v>163928.4913662564</v>
       </c>
       <c r="AE3" t="n">
-        <v>196681.3512554965</v>
+        <v>224294.1939018398</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.098331020359754e-06</v>
+        <v>7.097452806748036e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.115017361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>177910.3591357378</v>
+        <v>202887.870834791</v>
       </c>
     </row>
   </sheetData>
@@ -2614,28 +2614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.7294015219738</v>
+        <v>173.990247014099</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.7616404066116</v>
+        <v>238.0611318725419</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.6012312169936</v>
+        <v>215.3409115675925</v>
       </c>
       <c r="AD2" t="n">
-        <v>146729.4015219738</v>
+        <v>173990.247014099</v>
       </c>
       <c r="AE2" t="n">
-        <v>200761.6404066116</v>
+        <v>238061.1318725419</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.871089184897492e-06</v>
+        <v>7.324933756422088e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>181601.2312169936</v>
+        <v>215340.9115675925</v>
       </c>
     </row>
   </sheetData>
@@ -2911,28 +2911,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.6766098849526</v>
+        <v>165.1665022218696</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.0069673909795</v>
+        <v>225.9880949716732</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.1592848891643</v>
+        <v>204.4201083639251</v>
       </c>
       <c r="AD2" t="n">
-        <v>136676.6098849526</v>
+        <v>165166.5022218696</v>
       </c>
       <c r="AE2" t="n">
-        <v>187006.9673909795</v>
+        <v>225988.0949716732</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.056588088529581e-06</v>
+        <v>7.390222508674922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.516493055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>169159.2848891643</v>
+        <v>204420.1083639251</v>
       </c>
     </row>
   </sheetData>
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.6497020413744</v>
+        <v>185.7749610550715</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.1255685287053</v>
+        <v>254.1854975282829</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.4532335674368</v>
+        <v>229.926390395844</v>
       </c>
       <c r="AD2" t="n">
-        <v>150649.7020413743</v>
+        <v>185774.9610550715</v>
       </c>
       <c r="AE2" t="n">
-        <v>206125.5685287053</v>
+        <v>254185.4975282829</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.613571100858174e-06</v>
+        <v>7.081435063383367e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.723090277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>186453.2335674368</v>
+        <v>229926.3903958439</v>
       </c>
     </row>
   </sheetData>
@@ -3505,28 +3505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.6098316846985</v>
+        <v>270.2273167901941</v>
       </c>
       <c r="AB2" t="n">
-        <v>314.1623013817157</v>
+        <v>369.7369364201779</v>
       </c>
       <c r="AC2" t="n">
-        <v>284.1790922674971</v>
+        <v>334.4497621372848</v>
       </c>
       <c r="AD2" t="n">
-        <v>229609.8316846985</v>
+        <v>270227.3167901941</v>
       </c>
       <c r="AE2" t="n">
-        <v>314162.3013817157</v>
+        <v>369736.9364201779</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.03244929801209e-06</v>
+        <v>5.217272029287463e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.848958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>284179.0922674972</v>
+        <v>334449.7621372848</v>
       </c>
     </row>
     <row r="3">
@@ -3611,28 +3611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.8419168011316</v>
+        <v>166.1934192897145</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.5473446584933</v>
+        <v>227.3931682082816</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.5028261508005</v>
+        <v>205.6910833828647</v>
       </c>
       <c r="AD3" t="n">
-        <v>145841.9168011316</v>
+        <v>166193.4192897145</v>
       </c>
       <c r="AE3" t="n">
-        <v>199547.3446584933</v>
+        <v>227393.1682082816</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.074055095208124e-06</v>
+        <v>7.00933522876684e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.09765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>180502.8261508005</v>
+        <v>205691.0833828647</v>
       </c>
     </row>
   </sheetData>
@@ -3908,28 +3908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.6992422139803</v>
+        <v>198.9985519450727</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.3487692148227</v>
+        <v>272.2785979676304</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.8417989600089</v>
+        <v>246.2927107230919</v>
       </c>
       <c r="AD2" t="n">
-        <v>164699.2422139803</v>
+        <v>198998.5519450727</v>
       </c>
       <c r="AE2" t="n">
-        <v>225348.7692148227</v>
+        <v>272278.5979676304</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.389117791908612e-06</v>
+        <v>6.794030149090055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.335069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>203841.7989600089</v>
+        <v>246292.7107230919</v>
       </c>
     </row>
   </sheetData>
@@ -4205,28 +4205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.8191802401221</v>
+        <v>184.2619354730665</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.8304325446251</v>
+        <v>252.115309177007</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.6136333685059</v>
+        <v>228.0537779152856</v>
       </c>
       <c r="AD2" t="n">
-        <v>154819.1802401221</v>
+        <v>184261.9354730665</v>
       </c>
       <c r="AE2" t="n">
-        <v>211830.4325446251</v>
+        <v>252115.309177007</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.804793822939425e-06</v>
+        <v>6.738572582859356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.674913194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>191613.6333685059</v>
+        <v>228053.7779152856</v>
       </c>
     </row>
     <row r="3">
@@ -4311,28 +4311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.7152152235763</v>
+        <v>159.3438082207569</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.1645212690889</v>
+        <v>218.0212281602252</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.9200476603117</v>
+        <v>197.2135881393914</v>
       </c>
       <c r="AD3" t="n">
-        <v>139715.2152235763</v>
+        <v>159343.8082207569</v>
       </c>
       <c r="AE3" t="n">
-        <v>191164.5212690888</v>
+        <v>218021.2281602252</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.108906652434191e-06</v>
+        <v>7.277179001576157e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.256076388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>172920.0476603117</v>
+        <v>197213.5881393914</v>
       </c>
     </row>
   </sheetData>
@@ -4608,28 +4608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.883158681083</v>
+        <v>224.804482416539</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.6477353455054</v>
+        <v>307.5874105159755</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.1992497266554</v>
+        <v>278.2316997580638</v>
       </c>
       <c r="AD2" t="n">
-        <v>194883.158681083</v>
+        <v>224804.482416539</v>
       </c>
       <c r="AE2" t="n">
-        <v>266647.7353455054</v>
+        <v>307587.4105159755</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.391066131799025e-06</v>
+        <v>5.913723228660945e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.239149305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>241199.2497266554</v>
+        <v>278231.6997580638</v>
       </c>
     </row>
     <row r="3">
@@ -4714,28 +4714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.8756470183013</v>
+        <v>162.8801199145034</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.4887634790399</v>
+        <v>222.8597658306678</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.8315902628584</v>
+        <v>201.5903425654987</v>
       </c>
       <c r="AD3" t="n">
-        <v>142875.6470183013</v>
+        <v>162880.1199145034</v>
       </c>
       <c r="AE3" t="n">
-        <v>195488.7634790399</v>
+        <v>222859.7658306678</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.093772178892835e-06</v>
+        <v>7.13918121505962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>176831.5902628584</v>
+        <v>201590.3425654987</v>
       </c>
     </row>
   </sheetData>
@@ -5011,28 +5011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.5988602968175</v>
+        <v>320.948561592215</v>
       </c>
       <c r="AB2" t="n">
-        <v>382.5594956892603</v>
+        <v>439.1359812216972</v>
       </c>
       <c r="AC2" t="n">
-        <v>346.0485543463009</v>
+        <v>397.2254595051182</v>
       </c>
       <c r="AD2" t="n">
-        <v>279598.8602968175</v>
+        <v>320948.561592215</v>
       </c>
       <c r="AE2" t="n">
-        <v>382559.4956892603</v>
+        <v>439135.9812216972</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.722671877378818e-06</v>
+        <v>4.628361742711396e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.502170138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>346048.5543463009</v>
+        <v>397225.4595051183</v>
       </c>
     </row>
     <row r="3">
@@ -5117,28 +5117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.0936479753977</v>
+        <v>169.7685881316471</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.9965067073766</v>
+        <v>232.2848719431289</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.527366418178</v>
+        <v>210.1159297788091</v>
       </c>
       <c r="AD3" t="n">
-        <v>149093.6479753976</v>
+        <v>169768.5881316471</v>
       </c>
       <c r="AE3" t="n">
-        <v>203996.5067073766</v>
+        <v>232284.8719431289</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.049750900639057e-06</v>
+        <v>6.884308128261808e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.043402777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>184527.366418178</v>
+        <v>210115.929778809</v>
       </c>
     </row>
     <row r="4">
@@ -5223,28 +5223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.7793038808632</v>
+        <v>169.4542440371127</v>
       </c>
       <c r="AB4" t="n">
-        <v>203.5664072493521</v>
+        <v>231.8547724851044</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.1383150487788</v>
+        <v>209.7268784094099</v>
       </c>
       <c r="AD4" t="n">
-        <v>148779.3038808632</v>
+        <v>169454.2440371127</v>
       </c>
       <c r="AE4" t="n">
-        <v>203566.4072493521</v>
+        <v>231854.7724851044</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.065467672278265e-06</v>
+        <v>6.911025598397748e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.023871527777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>184138.3150487788</v>
+        <v>209726.8784094099</v>
       </c>
     </row>
   </sheetData>
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.8460786476357</v>
+        <v>166.4999255305051</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.6070861454023</v>
+        <v>227.812543569032</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.6066905554462</v>
+        <v>206.0704341477822</v>
       </c>
       <c r="AD2" t="n">
-        <v>137846.0786476357</v>
+        <v>166499.9255305051</v>
       </c>
       <c r="AE2" t="n">
-        <v>188607.0861454023</v>
+        <v>227812.543569032</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.069758219110428e-06</v>
+        <v>7.338737136406929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.4296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>170606.6905554462</v>
+        <v>206070.4341477822</v>
       </c>
     </row>
     <row r="3">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.5029144878195</v>
+        <v>167.1567613706889</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.5057979194934</v>
+        <v>228.7112553431231</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.4196305391682</v>
+        <v>206.8833741315043</v>
       </c>
       <c r="AD3" t="n">
-        <v>138502.9144878195</v>
+        <v>167156.7613706889</v>
       </c>
       <c r="AE3" t="n">
-        <v>189505.7979194934</v>
+        <v>228711.2553431231</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.066398316647939e-06</v>
+        <v>7.332678437179935e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.434027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>171419.6305391682</v>
+        <v>206883.3741315043</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.5217059897911</v>
+        <v>164.2768674882195</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.7950210477421</v>
+        <v>224.7708574811792</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.9675664074568</v>
+        <v>203.3190423111199</v>
       </c>
       <c r="AD2" t="n">
-        <v>136521.7059897911</v>
+        <v>164276.8674882195</v>
       </c>
       <c r="AE2" t="n">
-        <v>186795.0210477421</v>
+        <v>224770.8574811792</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.958286045911945e-06</v>
+        <v>7.384896524282623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.813802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>168967.5664074568</v>
+        <v>203319.0423111199</v>
       </c>
     </row>
   </sheetData>
@@ -9617,28 +9617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.0302112293277</v>
+        <v>174.8454278227849</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.5414656358863</v>
+        <v>239.2312279828999</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.2111924243873</v>
+        <v>216.3993353474184</v>
       </c>
       <c r="AD2" t="n">
-        <v>148030.2112293277</v>
+        <v>174845.4278227849</v>
       </c>
       <c r="AE2" t="n">
-        <v>202541.4656358863</v>
+        <v>239231.2279828999</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.764541794829032e-06</v>
+        <v>7.239353474247529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.323784722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>183211.1924243873</v>
+        <v>216399.3353474184</v>
       </c>
     </row>
   </sheetData>
@@ -9914,28 +9914,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.2547753494493</v>
+        <v>217.7777910038388</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.1055123799915</v>
+        <v>297.9731813293772</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.0449161108274</v>
+        <v>269.535039111376</v>
       </c>
       <c r="AD2" t="n">
-        <v>184254.7753494493</v>
+        <v>217777.7910038388</v>
       </c>
       <c r="AE2" t="n">
-        <v>252105.5123799915</v>
+        <v>297973.1813293772</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.03429162325523e-06</v>
+        <v>6.25852784294289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.422309027777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>228044.9161108274</v>
+        <v>269535.039111376</v>
       </c>
     </row>
   </sheetData>
@@ -10211,28 +10211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.8496418976172</v>
+        <v>208.319864069223</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.0275291646832</v>
+        <v>285.0324284431543</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.9785860304462</v>
+        <v>257.8293335181493</v>
       </c>
       <c r="AD2" t="n">
-        <v>168849.6418976172</v>
+        <v>208319.864069223</v>
       </c>
       <c r="AE2" t="n">
-        <v>231027.5291646832</v>
+        <v>285032.4284431543</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.596661969300145e-06</v>
+        <v>6.319193199745623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.941840277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>208978.5860304462</v>
+        <v>257829.3335181493</v>
       </c>
     </row>
     <row r="3">
@@ -10317,28 +10317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.3817059690152</v>
+        <v>161.2022474179408</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.4446874273801</v>
+        <v>220.5640266583617</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.9825979606897</v>
+        <v>199.5137055177066</v>
       </c>
       <c r="AD3" t="n">
-        <v>141381.7059690152</v>
+        <v>161202.2474179408</v>
       </c>
       <c r="AE3" t="n">
-        <v>193444.6874273801</v>
+        <v>220564.0266583617</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.098695830688643e-06</v>
+        <v>7.201246890086044e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.21484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>174982.5979606897</v>
+        <v>199513.7055177066</v>
       </c>
     </row>
   </sheetData>
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.4022509957006</v>
+        <v>289.1760608214983</v>
       </c>
       <c r="AB2" t="n">
-        <v>353.5573597150678</v>
+        <v>395.663443963396</v>
       </c>
       <c r="AC2" t="n">
-        <v>319.8143415247319</v>
+        <v>357.9018801886601</v>
       </c>
       <c r="AD2" t="n">
-        <v>258402.2509957006</v>
+        <v>289176.0608214983</v>
       </c>
       <c r="AE2" t="n">
-        <v>353557.3597150678</v>
+        <v>395663.443963396</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.877033118409615e-06</v>
+        <v>4.91940600901773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.157118055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>319814.3415247319</v>
+        <v>357901.8801886601</v>
       </c>
     </row>
     <row r="3">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.9270368960124</v>
+        <v>167.4429399493943</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.0320538444283</v>
+        <v>229.1028174998155</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.8458367758329</v>
+        <v>207.237566145523</v>
       </c>
       <c r="AD3" t="n">
-        <v>146927.0368960124</v>
+        <v>167442.9399493943</v>
       </c>
       <c r="AE3" t="n">
-        <v>201032.0538444283</v>
+        <v>229102.8174998155</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.075369889280932e-06</v>
+        <v>6.968428341687296e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.052083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>181845.8367758329</v>
+        <v>207237.566145523</v>
       </c>
     </row>
   </sheetData>
@@ -11017,28 +11017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.72511161112</v>
+        <v>273.4673415570347</v>
       </c>
       <c r="AB2" t="n">
-        <v>307.4788118784085</v>
+        <v>374.1700812459738</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.1334656220471</v>
+        <v>338.4598138428647</v>
       </c>
       <c r="AD2" t="n">
-        <v>224725.1116111201</v>
+        <v>273467.3415570348</v>
       </c>
       <c r="AE2" t="n">
-        <v>307478.8118784085</v>
+        <v>374170.0812459738</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.463936336464729e-06</v>
+        <v>5.281350434618035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.74001736111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>278133.4656220471</v>
+        <v>338459.8138428646</v>
       </c>
     </row>
   </sheetData>
@@ -11314,28 +11314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.6402048051855</v>
+        <v>164.7749367304233</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.9571563547634</v>
+        <v>225.4523377916263</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.1142277483344</v>
+        <v>203.9354830972019</v>
       </c>
       <c r="AD2" t="n">
-        <v>136640.2048051855</v>
+        <v>164774.9367304233</v>
       </c>
       <c r="AE2" t="n">
-        <v>186957.1563547634</v>
+        <v>225452.3377916263</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.009178563155946e-06</v>
+        <v>7.386641023800129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.657552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>169114.2277483344</v>
+        <v>203935.4830972019</v>
       </c>
     </row>
   </sheetData>
@@ -11611,28 +11611,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.611714891046</v>
+        <v>172.5824154131605</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.4958840155514</v>
+        <v>236.134874566992</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.7425926288681</v>
+        <v>213.5984935557645</v>
       </c>
       <c r="AD2" t="n">
-        <v>143611.714891046</v>
+        <v>172582.4154131605</v>
       </c>
       <c r="AE2" t="n">
-        <v>196495.8840155514</v>
+        <v>236134.874566992</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.985657110336285e-06</v>
+        <v>7.120085561212901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.479600694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>177742.5926288681</v>
+        <v>213598.4935557646</v>
       </c>
     </row>
     <row r="3">
@@ -11717,28 +11717,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.4674377150799</v>
+        <v>168.4381382371944</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.8255011507921</v>
+        <v>230.4644917022327</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.6133831462873</v>
+        <v>208.4692840731837</v>
       </c>
       <c r="AD3" t="n">
-        <v>139467.4377150799</v>
+        <v>168438.1382371944</v>
       </c>
       <c r="AE3" t="n">
-        <v>190825.5011507921</v>
+        <v>230464.4917022327</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.081952840065946e-06</v>
+        <v>7.292110854878158e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.349392361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>172613.3831462873</v>
+        <v>208469.2840731837</v>
       </c>
     </row>
   </sheetData>
